--- a/src/main/resources/data/users.xlsx
+++ b/src/main/resources/data/users.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>levan</t>
+    <t>anako</t>
   </si>
   <si>
     <t>user</t>

--- a/src/main/resources/data/users.xlsx
+++ b/src/main/resources/data/users.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>anako</t>
+    <t>Username</t>
   </si>
   <si>
-    <t>user</t>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Budget</t>
   </si>
 </sst>
 </file>
@@ -67,6 +70,11 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="10.234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.4140625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -75,8 +83,8 @@
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="n" s="0">
-        <v>1000.0</v>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
